--- a/data/trans_bre/P16A08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.987482152807431</v>
+        <v>-1.719301000788475</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5877273259316084</v>
+        <v>-0.5894022675250814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.656751208463843</v>
+        <v>-1.545713099955417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.00639192706566</v>
+        <v>-3.137416005681358</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4415653577529697</v>
+        <v>-0.3908301172774689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1529115068786474</v>
+        <v>-0.14910189786178</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3011386767879615</v>
+        <v>-0.2797111125793458</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6409436538999232</v>
+        <v>-0.6447158750532667</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.695493682742491</v>
+        <v>2.781974307233198</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.362371379867978</v>
+        <v>5.518295928442864</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.140530461611538</v>
+        <v>4.374691534956676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.371636567791087</v>
+        <v>4.485785094452297</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.229647408762746</v>
+        <v>1.257594218058192</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.967134084058257</v>
+        <v>1.923007827281102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.455297585968302</v>
+        <v>1.605526911304499</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.554884612680618</v>
+        <v>2.737325398284844</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2546921575771597</v>
+        <v>-0.4319304267076141</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4218384287381373</v>
+        <v>-0.3464252303572358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.07164693409046263</v>
+        <v>0.03072388429312702</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.824302463730503</v>
+        <v>-1.932895215152969</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1202598595322748</v>
+        <v>-0.1732764218064309</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09211036598272944</v>
+        <v>-0.08329768119153516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02040853895319777</v>
+        <v>-0.02301027440867076</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.293645195359511</v>
+        <v>-0.2872626216119464</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.902369346181155</v>
+        <v>3.790562717075405</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.710181860424171</v>
+        <v>4.761995728818972</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.098715526449366</v>
+        <v>5.190503814275613</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.091515458692235</v>
+        <v>4.848251923589364</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.144968787509032</v>
+        <v>2.076317453984918</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.625000731038378</v>
+        <v>1.640093623796677</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.973803302953144</v>
+        <v>1.979699273567031</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.536967047753346</v>
+        <v>1.511431003210525</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.803421088021178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.170956449839742</v>
+        <v>1.170956449839741</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.192025692325995</v>
@@ -849,7 +849,7 @@
         <v>1.219000043778836</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3117428286628514</v>
+        <v>0.3117428286628512</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2134648822559978</v>
+        <v>0.377689478689163</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8341841249369727</v>
+        <v>0.7930132889391447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.402905723692555</v>
+        <v>1.066495570446347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.099820423366467</v>
+        <v>-1.261774028395429</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03444019443241501</v>
+        <v>0.106690497363051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1639213786205195</v>
+        <v>0.124822389463722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3067113744531597</v>
+        <v>0.2182531715484783</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2336751147577066</v>
+        <v>-0.2394715870834699</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.03042780378509</v>
+        <v>4.164461037352639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.053275476335156</v>
+        <v>6.290830228427319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.256263205812132</v>
+        <v>6.35046284694381</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.305658487297908</v>
+        <v>3.330728984659618</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.469789744358068</v>
+        <v>3.472190578724479</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.278618063328075</v>
+        <v>2.11450714499474</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.979587038161204</v>
+        <v>3.19840860695035</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.233732713849815</v>
+        <v>1.323667513719145</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>1.675578907714401</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3463884302586952</v>
+        <v>0.3463884302586951</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.214192006219297</v>
+        <v>-1.016712398409041</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8102821150100205</v>
+        <v>0.9464432713351271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.069873825136996</v>
+        <v>1.175818636106069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.88082529764617</v>
+        <v>-0.7359956964767492</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3837609753515115</v>
+        <v>-0.3474852991905639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1692225390839104</v>
+        <v>0.22032639296217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2532122206000464</v>
+        <v>0.2980362043746498</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1683722404707245</v>
+        <v>-0.112945554438689</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.091186706766821</v>
+        <v>3.099092227897845</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.710120976220791</v>
+        <v>6.167611353091853</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.420875611781582</v>
+        <v>5.52849875463603</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.900072400098277</v>
+        <v>3.898641084759929</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.889318920007943</v>
+        <v>3.175175043233042</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.120458145563483</v>
+        <v>4.55861629264594</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.341740002587656</v>
+        <v>4.088389527794528</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.102904529830153</v>
+        <v>1.110451561887185</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.25967705552343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.584796902188091</v>
+        <v>2.584796902188092</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9441473139043164</v>
@@ -1049,7 +1049,7 @@
         <v>0.3142015738845839</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.477356356408857</v>
+        <v>1.477356356408858</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2125179702675823</v>
+        <v>-0.4439494732352474</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.888588202846505</v>
+        <v>-0.9369629220092036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.853640957155272</v>
+        <v>-1.514513034589386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9614764919317078</v>
+        <v>1.03924408780526</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.167352227386164</v>
+        <v>-0.2254553325434038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3484122659324501</v>
+        <v>-0.3833082537475682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3552578879110146</v>
+        <v>-0.2974318087448769</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.336611894731237</v>
+        <v>0.3412517304695594</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.399374505132043</v>
+        <v>5.227002635153188</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.770374562834929</v>
+        <v>3.340272044927977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.030840606292461</v>
+        <v>4.13040382258893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.315016213791867</v>
+        <v>4.364169008461414</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.643588020003925</v>
+        <v>3.963624745681298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.669946208679985</v>
+        <v>3.59715395684938</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.430817161006633</v>
+        <v>1.574313359519278</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.633123012807074</v>
+        <v>4.287341932091119</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.84963304896791</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.424555394147578</v>
+        <v>2.424555394147577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.636944972678883</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.122717048485679</v>
+        <v>0.320373177492991</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.221109306609081</v>
+        <v>-3.235119042138177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.1355126688378311</v>
+        <v>-0.09853825157911035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5905718131160281</v>
+        <v>0.5960615314584947</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06568844370688595</v>
+        <v>-0.1533705969961179</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5048400294992708</v>
+        <v>-0.5441269634062925</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2306290692157365</v>
+        <v>-0.2399053790680033</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1866519367150917</v>
+        <v>0.1254186534807392</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.459926230678392</v>
+        <v>5.849042514699853</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.381038315082917</v>
+        <v>3.018786683965049</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.150304721611707</v>
+        <v>4.411996249062402</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.229635398577615</v>
+        <v>4.192997478119186</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.104122706995712</v>
+        <v>7.554540293272784</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.469798890168261</v>
+        <v>1.347628086485072</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>7.218232764199584</v>
+        <v>7.259351367491133</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.403581374948295</v>
+        <v>4.192677874222041</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.2179459076713957</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2702794694783215</v>
+        <v>0.2702794694783216</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.308572361463535</v>
+        <v>-3.031109658973127</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.050084958472165</v>
+        <v>-4.177892565501566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.133706934714462</v>
+        <v>-2.427484763084025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.253169610893</v>
+        <v>-1.226814932391858</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8034618367230865</v>
+        <v>-0.7826827090419961</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6416540492662836</v>
+        <v>-0.6495210376060248</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4911270609666106</v>
+        <v>-0.533239175510972</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3883827742466384</v>
+        <v>-0.3671127029369717</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.573770919970109</v>
+        <v>2.40240124486585</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.594070033209937</v>
+        <v>2.456294223482259</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.640849063734378</v>
+        <v>3.582173216973794</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.359181508833948</v>
+        <v>2.352588316336653</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.736891341797389</v>
+        <v>3.149885553597459</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.346054289751135</v>
+        <v>1.143291880768619</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.106986548751392</v>
+        <v>1.884332032936514</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.758413075488613</v>
+        <v>1.872455318184005</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.302522430252814</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.569286931561417</v>
+        <v>1.569286931561416</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6393527593106225</v>
@@ -1349,7 +1349,7 @@
         <v>0.7497959901955056</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4635564402760842</v>
+        <v>0.4635564402760839</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6969752551687676</v>
+        <v>0.620277893478245</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.109791316330972</v>
+        <v>1.050835733981978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.312850195866196</v>
+        <v>1.37015293029022</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5579031842399831</v>
+        <v>0.5127373150501389</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2534966900198985</v>
+        <v>0.2146194672094519</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2777599901766207</v>
+        <v>0.2604964389333686</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3805194156248877</v>
+        <v>0.3969239292279377</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.140490924029313</v>
+        <v>0.1239552916844722</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.50853639968064</v>
+        <v>2.383889648058115</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.19829101385862</v>
+        <v>3.120414475956236</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.245337593412335</v>
+        <v>3.298716061885155</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.531864458226754</v>
+        <v>2.580337447950532</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.242778745808538</v>
+        <v>1.211786935553599</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.071651771986968</v>
+        <v>1.060154156845954</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.213801576522358</v>
+        <v>1.239361322761981</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8698166847418334</v>
+        <v>0.8783130518880363</v>
       </c>
     </row>
     <row r="28">
